--- a/biology/Botanique/Renoncule_scélérate/Renoncule_scélérate.xlsx
+++ b/biology/Botanique/Renoncule_scélérate/Renoncule_scélérate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Renoncule_sc%C3%A9l%C3%A9rate</t>
+          <t>Renoncule_scélérate</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ranunculus sceleratus
 La Renoncule scélérate ou renoncule à feuilles de céleri (Ranunculus sceleratus) est une espèce de plante de la famille des Ranunculacées qui pousse dans les prairies humides et au bord des cours d'eau.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Renoncule_sc%C3%A9l%C3%A9rate</t>
+          <t>Renoncule_scélérate</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,48 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée moyenne (10 à 60 cm) qui se reconnaît notamment à ses petites fleurs jaune-verdâtre et aux infrutescences allongées. Les feuilles sont glabres, assez épaisses, et leur forme rappelle celle des feuilles de céleri. La plante était connue au Moyen Âge comme « céleri du rire » car son ingestion provoquait un rictus sur le visage de la personne empoisonnée. C'est pour cette même raison que de son appellation médiévale de « sardonie » fut dérivé l'adjectif « sardonique ».
-Caractéristiques
-Organes reproducteurs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Renoncule_scélérate</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Renoncule_sc%C3%A9l%C3%A9rate</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Organes reproducteurs
 Couleur dominante des fleurs : jaune
 Période de floraison : mai-octobre
 Inflorescence : cyme unipare hélicoïde
@@ -534,44 +583,13 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Renoncule_sc%C3%A9l%C3%A9rate</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Renoncule_sc%C3%A9l%C3%A9rate</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Composés du métabolisme secondaire</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette Renoncule contient entre autres de la ranunculine (es) qui se transforme par hydrolyse en proto-anémonine (2,5 % de son poids sec), composé toxique[1].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Renoncule_sc%C3%A9l%C3%A9rate</t>
+          <t>Renoncule_scélérate</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,12 +604,47 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Composés du métabolisme secondaire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette Renoncule contient entre autres de la ranunculine (es) qui se transforme par hydrolyse en proto-anémonine (2,5 % de son poids sec), composé toxique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Renoncule_scélérate</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Renoncule_sc%C3%A9l%C3%A9rate</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Statuts de protection, menaces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est évaluée comme non préoccupante aux échelons mondial, européen et français[2]. En France l'espèce est considérée en danger (EN) en Limousin.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est évaluée comme non préoccupante aux échelons mondial, européen et français. En France l'espèce est considérée en danger (EN) en Limousin.
 </t>
         </is>
       </c>
